--- a/Task.Regression/Task.Regression.xlsx
+++ b/Task.Regression/Task.Regression.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA121C-7B3F-4B15-8915-D93643CC41AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -72,17 +71,6 @@
     <t>Components</t>
   </si>
   <si>
-    <t>Risk range
-defect analysis</t>
-  </si>
-  <si>
-    <t>Number of
-Regr TCs</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -156,12 +144,18 @@
   </si>
   <si>
     <t>Identify features that not covered by unit tests</t>
+  </si>
+  <si>
+    <t>Risk range by Impact Analysis</t>
+  </si>
+  <si>
+    <t>Medium because it does not affect on the functionality. Only labels to fields will be translated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -347,31 +341,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -390,18 +370,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,11 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACF6C6-9D73-42C6-8FA6-18E51EAF4B3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -925,133 +901,133 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J1" s="8"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="13"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,7 +1057,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1092,7 +1068,7 @@
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1100,7 +1076,7 @@
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1108,7 +1084,7 @@
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1116,7 +1092,7 @@
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1124,12 +1100,12 @@
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1140,31 +1116,31 @@
       <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>43</v>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2.4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1172,12 +1148,12 @@
       <c r="A13" s="3">
         <v>2.5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1188,7 +1164,7 @@
       <c r="A15" s="3">
         <v>3.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1196,7 +1172,7 @@
       <c r="A16" s="3">
         <v>3.2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1204,7 +1180,7 @@
       <c r="A17" s="3">
         <v>3.3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1215,224 +1191,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE26529A-A2F4-43BE-B99E-C659F70D8FE0}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="171" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="171" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="20">
-        <v>113</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
-        <v>55</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4">
-        <v>116</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4">
-        <v>102</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>93</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>15</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4">
-        <v>14</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>57</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>35</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>150</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>80</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4">
-        <v>835</v>
-      </c>
-      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Task.Regression/Task.Regression.xlsx
+++ b/Task.Regression/Task.Regression.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16CE27-3B92-414A-A59E-17FC3F08872E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="3" r:id="rId1"/>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +389,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1036,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,11 +1207,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1326,8 +1327,8 @@
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
+      <c r="B12" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -1345,7 +1346,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
